--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>126.0059998610794</v>
+        <v>325.2890714489052</v>
       </c>
       <c r="R2">
-        <v>126.0059998610794</v>
+        <v>2927.601643040147</v>
       </c>
       <c r="S2">
-        <v>0.0009803649240148606</v>
+        <v>0.00226247807187702</v>
       </c>
       <c r="T2">
-        <v>0.0009803649240148606</v>
+        <v>0.002262478071877021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>1913.821133500612</v>
+        <v>2321.681636774859</v>
       </c>
       <c r="R3">
-        <v>1913.821133500612</v>
+        <v>20895.13473097373</v>
       </c>
       <c r="S3">
-        <v>0.01489010929789777</v>
+        <v>0.01614795655349197</v>
       </c>
       <c r="T3">
-        <v>0.01489010929789777</v>
+        <v>0.01614795655349198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>1702.670537763505</v>
+        <v>2270.382305823801</v>
       </c>
       <c r="R4">
-        <v>1702.670537763505</v>
+        <v>20433.4407524142</v>
       </c>
       <c r="S4">
-        <v>0.0132472935750455</v>
+        <v>0.0157911551065151</v>
       </c>
       <c r="T4">
-        <v>0.0132472935750455</v>
+        <v>0.0157911551065151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>2127.174637970557</v>
+        <v>2594.331513914789</v>
       </c>
       <c r="R5">
-        <v>2127.174637970557</v>
+        <v>23348.98362523311</v>
       </c>
       <c r="S5">
-        <v>0.01655006431931408</v>
+        <v>0.01804431404740166</v>
       </c>
       <c r="T5">
-        <v>0.01655006431931408</v>
+        <v>0.01804431404740167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>813.6605075264747</v>
+        <v>985.5858422651346</v>
       </c>
       <c r="R6">
-        <v>813.6605075264747</v>
+        <v>8870.27258038621</v>
       </c>
       <c r="S6">
-        <v>0.006330525709208498</v>
+        <v>0.006855030038805245</v>
       </c>
       <c r="T6">
-        <v>0.006330525709208498</v>
+        <v>0.006855030038805245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>517.8914369790239</v>
+        <v>662.2563036304271</v>
       </c>
       <c r="R7">
-        <v>517.8914369790239</v>
+        <v>5960.306732673844</v>
       </c>
       <c r="S7">
-        <v>0.004029352569097091</v>
+        <v>0.004606181075350154</v>
       </c>
       <c r="T7">
-        <v>0.004029352569097091</v>
+        <v>0.004606181075350154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>56.07610442152595</v>
+        <v>121.571553172469</v>
       </c>
       <c r="R8">
-        <v>56.07610442152595</v>
+        <v>1094.143978552221</v>
       </c>
       <c r="S8">
-        <v>0.0004362891125094698</v>
+        <v>0.0008455647525802178</v>
       </c>
       <c r="T8">
-        <v>0.0004362891125094698</v>
+        <v>0.000845564752580218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>851.7025684858069</v>
+        <v>867.691131760183</v>
       </c>
       <c r="R9">
-        <v>851.7025684858069</v>
+        <v>7809.220185841648</v>
       </c>
       <c r="S9">
-        <v>0.006626504489924352</v>
+        <v>0.006035038773437328</v>
       </c>
       <c r="T9">
-        <v>0.006626504489924352</v>
+        <v>0.00603503877343733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>757.7347981552232</v>
+        <v>848.5188327565621</v>
       </c>
       <c r="R10">
-        <v>757.7347981552232</v>
+        <v>7636.669494809059</v>
       </c>
       <c r="S10">
-        <v>0.005895406715837776</v>
+        <v>0.005901689977272882</v>
       </c>
       <c r="T10">
-        <v>0.005895406715837776</v>
+        <v>0.005901689977272882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>946.6506932460992</v>
+        <v>969.5896335713352</v>
       </c>
       <c r="R11">
-        <v>946.6506932460992</v>
+        <v>8726.306702142016</v>
       </c>
       <c r="S11">
-        <v>0.007365229719029329</v>
+        <v>0.006743771854687078</v>
       </c>
       <c r="T11">
-        <v>0.007365229719029329</v>
+        <v>0.006743771854687079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>362.1011033921378</v>
+        <v>368.346840228197</v>
       </c>
       <c r="R12">
-        <v>362.1011033921378</v>
+        <v>3315.121562053773</v>
       </c>
       <c r="S12">
-        <v>0.00281725648861249</v>
+        <v>0.002561957108332755</v>
       </c>
       <c r="T12">
-        <v>0.00281725648861249</v>
+        <v>0.002561957108332755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>230.4758053669486</v>
+        <v>247.507630895788</v>
       </c>
       <c r="R13">
-        <v>230.4758053669486</v>
+        <v>2227.568678062092</v>
       </c>
       <c r="S13">
-        <v>0.001793171719322421</v>
+        <v>0.001721486015591245</v>
       </c>
       <c r="T13">
-        <v>0.001793171719322421</v>
+        <v>0.001721486015591245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>631.8400809318888</v>
+        <v>1510.845370922287</v>
       </c>
       <c r="R14">
-        <v>631.8400809318888</v>
+        <v>13597.60833830058</v>
       </c>
       <c r="S14">
-        <v>0.004915907604520861</v>
+        <v>0.01050835955380536</v>
       </c>
       <c r="T14">
-        <v>0.004915907604520861</v>
+        <v>0.01050835955380536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>9596.597790687361</v>
+        <v>10783.33784179265</v>
       </c>
       <c r="R15">
-        <v>9596.597790687361</v>
+        <v>97050.04057613385</v>
       </c>
       <c r="S15">
-        <v>0.07466444355221837</v>
+        <v>0.07500118371646466</v>
       </c>
       <c r="T15">
-        <v>0.07466444355221837</v>
+        <v>0.07500118371646468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>8537.811624580685</v>
+        <v>10545.07174710465</v>
       </c>
       <c r="R16">
-        <v>8537.811624580685</v>
+        <v>94905.64572394184</v>
       </c>
       <c r="S16">
-        <v>0.06642676581919342</v>
+        <v>0.07334397521541593</v>
       </c>
       <c r="T16">
-        <v>0.06642676581919342</v>
+        <v>0.07334397521541594</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>10666.43014533725</v>
+        <v>12049.69395675392</v>
       </c>
       <c r="R17">
-        <v>10666.43014533725</v>
+        <v>108447.2456107853</v>
       </c>
       <c r="S17">
-        <v>0.08298806398482715</v>
+        <v>0.08380905091140449</v>
       </c>
       <c r="T17">
-        <v>0.08298806398482715</v>
+        <v>0.0838090509114045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>4079.990805941022</v>
+        <v>4577.675483532857</v>
       </c>
       <c r="R18">
-        <v>4079.990805941022</v>
+        <v>41199.07935179571</v>
       </c>
       <c r="S18">
-        <v>0.03174356682108421</v>
+        <v>0.03183903583213041</v>
       </c>
       <c r="T18">
-        <v>0.03174356682108421</v>
+        <v>0.03183903583213041</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>2596.8967177398</v>
+        <v>3075.931405403206</v>
       </c>
       <c r="R19">
-        <v>2596.8967177398</v>
+        <v>27683.38264862886</v>
       </c>
       <c r="S19">
-        <v>0.02020464466904959</v>
+        <v>0.02139397836000076</v>
       </c>
       <c r="T19">
-        <v>0.02020464466904959</v>
+        <v>0.02139397836000076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>747.225827274085</v>
+        <v>1624.775861885666</v>
       </c>
       <c r="R20">
-        <v>747.225827274085</v>
+        <v>14622.982756971</v>
       </c>
       <c r="S20">
-        <v>0.005813643732720146</v>
+        <v>0.01130077854401209</v>
       </c>
       <c r="T20">
-        <v>0.005813643732720146</v>
+        <v>0.0113007785440121</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>11349.11497318579</v>
+        <v>11596.49251545026</v>
       </c>
       <c r="R21">
-        <v>11349.11497318579</v>
+        <v>104368.4326390524</v>
       </c>
       <c r="S21">
-        <v>0.08829955915265808</v>
+        <v>0.0806569059022733</v>
       </c>
       <c r="T21">
-        <v>0.08829955915265808</v>
+        <v>0.08065690590227333</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>10096.97476753666</v>
+        <v>11340.25914649967</v>
       </c>
       <c r="R22">
-        <v>10096.97476753666</v>
+        <v>102062.332318497</v>
       </c>
       <c r="S22">
-        <v>0.07855752830555135</v>
+        <v>0.07887472989509393</v>
       </c>
       <c r="T22">
-        <v>0.07855752830555135</v>
+        <v>0.07887472989509395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>12614.31860678374</v>
+        <v>12958.34256823519</v>
       </c>
       <c r="R23">
-        <v>12614.31860678374</v>
+        <v>116625.0831141167</v>
       </c>
       <c r="S23">
-        <v>0.09814322743419281</v>
+        <v>0.09012896061313817</v>
       </c>
       <c r="T23">
-        <v>0.09814322743419281</v>
+        <v>0.0901289606131382</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>4825.072984834247</v>
+        <v>4922.870845909059</v>
       </c>
       <c r="R24">
-        <v>4825.072984834247</v>
+        <v>44305.83761318152</v>
       </c>
       <c r="S24">
-        <v>0.03754053231876528</v>
+        <v>0.03423996782290119</v>
       </c>
       <c r="T24">
-        <v>0.03754053231876528</v>
+        <v>0.03423996782290119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>3071.138341519137</v>
+        <v>3307.882591098232</v>
       </c>
       <c r="R25">
-        <v>3071.138341519137</v>
+        <v>29770.94331988409</v>
       </c>
       <c r="S25">
-        <v>0.02389438844294682</v>
+        <v>0.02300726487172822</v>
       </c>
       <c r="T25">
-        <v>0.02389438844294682</v>
+        <v>0.02300726487172823</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>644.4264121432149</v>
+        <v>1426.081921421663</v>
       </c>
       <c r="R26">
-        <v>644.4264121432149</v>
+        <v>12834.73729279497</v>
       </c>
       <c r="S26">
-        <v>0.005013833081523713</v>
+        <v>0.009918805638152402</v>
       </c>
       <c r="T26">
-        <v>0.005013833081523713</v>
+        <v>0.009918805638152405</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>9787.763185129143</v>
+        <v>10178.35672976595</v>
       </c>
       <c r="R27">
-        <v>9787.763185129143</v>
+        <v>91605.21056789358</v>
       </c>
       <c r="S27">
-        <v>0.07615176834312361</v>
+        <v>0.0707933678997099</v>
       </c>
       <c r="T27">
-        <v>0.07615176834312361</v>
+        <v>0.07079336789970991</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>8707.885869899836</v>
+        <v>9953.45815532423</v>
       </c>
       <c r="R28">
-        <v>8707.885869899836</v>
+        <v>89581.12339791807</v>
       </c>
       <c r="S28">
-        <v>0.0677499950683801</v>
+        <v>0.06922913430648042</v>
       </c>
       <c r="T28">
-        <v>0.0677499950683801</v>
+        <v>0.06922913430648042</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>10878.90673032009</v>
+        <v>11373.6660555149</v>
       </c>
       <c r="R29">
-        <v>10878.90673032009</v>
+        <v>102362.9944996341</v>
       </c>
       <c r="S29">
-        <v>0.08464119630647285</v>
+        <v>0.07910708445517645</v>
       </c>
       <c r="T29">
-        <v>0.08464119630647285</v>
+        <v>0.07910708445517646</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>4161.264718711799</v>
+        <v>4320.852666223754</v>
       </c>
       <c r="R30">
-        <v>4161.264718711799</v>
+        <v>38887.67399601379</v>
       </c>
       <c r="S30">
-        <v>0.03237590253054056</v>
+        <v>0.03005276004385576</v>
       </c>
       <c r="T30">
-        <v>0.03237590253054056</v>
+        <v>0.03005276004385576</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>2648.627216005867</v>
+        <v>2903.36142480346</v>
       </c>
       <c r="R31">
-        <v>2648.627216005867</v>
+        <v>26130.25282323114</v>
       </c>
       <c r="S31">
-        <v>0.02060712364669967</v>
+        <v>0.02019370503009119</v>
       </c>
       <c r="T31">
-        <v>0.02060712364669967</v>
+        <v>0.02019370503009119</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>43.4198493386427</v>
+        <v>97.44474143745111</v>
       </c>
       <c r="R32">
-        <v>43.4198493386427</v>
+        <v>877.0026729370601</v>
       </c>
       <c r="S32">
-        <v>0.0003378196065627451</v>
+        <v>0.0006777559102737607</v>
       </c>
       <c r="T32">
-        <v>0.0003378196065627451</v>
+        <v>0.000677755910273761</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>659.4751469717449</v>
+        <v>695.4911389672689</v>
       </c>
       <c r="R33">
-        <v>659.4751469717449</v>
+        <v>6259.420250705421</v>
       </c>
       <c r="S33">
-        <v>0.005130916806052363</v>
+        <v>0.004837338814025855</v>
       </c>
       <c r="T33">
-        <v>0.005130916806052363</v>
+        <v>0.004837338814025858</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>586.7156984948657</v>
+        <v>680.1237304706533</v>
       </c>
       <c r="R34">
-        <v>586.7156984948657</v>
+        <v>6121.11357423588</v>
       </c>
       <c r="S34">
-        <v>0.004564826213096149</v>
+        <v>0.00473045411424082</v>
       </c>
       <c r="T34">
-        <v>0.004564826213096149</v>
+        <v>0.004730454114240821</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>732.9936860109152</v>
+        <v>777.1670977153223</v>
       </c>
       <c r="R35">
-        <v>732.9936860109152</v>
+        <v>6994.503879437901</v>
       </c>
       <c r="S35">
-        <v>0.005702913353980888</v>
+        <v>0.005405418352769378</v>
       </c>
       <c r="T35">
-        <v>0.005702913353980888</v>
+        <v>0.005405418352769381</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>280.3756701153362</v>
+        <v>295.2455707661978</v>
       </c>
       <c r="R36">
-        <v>280.3756701153362</v>
+        <v>2657.21013689578</v>
       </c>
       <c r="S36">
-        <v>0.002181407812574637</v>
+        <v>0.002053516974000958</v>
       </c>
       <c r="T36">
-        <v>0.002181407812574637</v>
+        <v>0.002053516974000959</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>178.4579162277501</v>
+        <v>198.3878338892356</v>
       </c>
       <c r="R37">
-        <v>178.4579162277501</v>
+        <v>1785.49050500312</v>
       </c>
       <c r="S37">
-        <v>0.001388456753451057</v>
+        <v>0.001379843847511732</v>
       </c>
       <c r="T37">
-        <v>0.001388456753451057</v>
+        <v>0.001379843847511733</v>
       </c>
     </row>
   </sheetData>
